--- a/biology/Microbiologie/Chlamydiota/Chlamydiota.xlsx
+++ b/biology/Microbiologie/Chlamydiota/Chlamydiota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlamydiota (en français les Chlamydiées) – anciennement Chlamydiae – sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Chlamydia qui est le genre type de cet embranchement. Ces bactéries ont la particularité d'être toutes des parasites intracellulaires de cellules d'eucaryotes. Les espèces les plus connues infectent les mammifères (dont les humains) et les oiseaux, mais certaines ont été retrouvées chez d'autres hôtes, comme des amibes.
-En 2022 selon la LPSN  (30 novembre 2022)[2] cet embranchement ne comporte qu'une seule classe, les Chlamydiia Horn 2016.
+En 2022 selon la LPSN  (30 novembre 2022) cet embranchement ne comporte qu'une seule classe, les Chlamydiia Horn 2016.
 </t>
         </is>
       </c>
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de Chlamydiota est la suivante : Chla.my.di.o’ta N.L. fem. n. Chlamydia, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe pour définir un phylum; N.L. neut. pl. n. Chlamydiota, le phylum des Chlamydia[3],[4].
-Nomenclature
-Ce taxon est décrit dès 2001 par G.M. Garrity et J.G Holt dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Chlamydiae »[5]. Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity[1] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Chlamydia, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[6]).
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de Chlamydiota est la suivante : Chla.my.di.o’ta N.L. fem. n. Chlamydia, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe pour définir un phylum; N.L. neut. pl. n. Chlamydiota, le phylum des Chlamydia,.
 </t>
         </is>
       </c>
@@ -543,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est décrit dès 2001 par G.M. Garrity et J.G Holt dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Chlamydiae ». Ce n'est qu'en 2021 qu'il est publié de manière valide par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Chlamydia, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chlamydiota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlamydiota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Au départ, on les considérait comme un seul genre, Chlamydia, mais à l'heure actuelle, différents genres ont été reconnus. Ils sont apparentés à certains autres groupes bactériens, en particulier les Thermomicrobia, mais ils constituent un phylum à part.
 Le cycle des Chlamydiota implique deux formes distinctes. Une infection se produit par des corps élémentaires, qui sont inactifs d'un point de vue métabolique. Ceux-ci sont absorbés dans une vacuole de la cellule, où ils grandissent pour devenir des corps réticulés, plus grands, qui se reproduiront. Plus tard de nouveaux corps élémentaires seront produits et expulsés de la cellule.
